--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Fall.121019.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Fall.121019.xlsx_with_dialog_acts.xlsx
@@ -517,12 +517,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1319,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2205,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2247,12 +2247,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2419,12 +2419,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2671,12 +2671,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3049,12 +3049,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3509,12 +3509,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3551,12 +3551,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4139,12 +4139,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4349,12 +4349,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4433,12 +4433,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4517,12 +4517,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4601,12 +4601,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4769,12 +4769,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5105,12 +5105,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5357,12 +5357,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5819,12 +5819,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6745,12 +6745,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7165,12 +7165,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7841,12 +7841,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8051,12 +8051,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8219,12 +8219,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8261,12 +8261,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8387,12 +8387,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8847,12 +8847,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9437,12 +9437,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9647,12 +9647,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9731,12 +9731,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9899,12 +9899,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9983,12 +9983,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10239,12 +10239,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10659,12 +10659,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11501,12 +11501,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11627,12 +11627,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11669,12 +11669,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11879,12 +11879,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12759,12 +12759,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12843,12 +12843,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13305,12 +13305,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13809,12 +13809,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14061,12 +14061,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14523,12 +14523,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14985,12 +14985,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15195,12 +15195,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15237,12 +15237,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15363,12 +15363,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15573,12 +15573,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15657,12 +15657,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15825,12 +15825,12 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
